--- a/数据整理/stocks/A股/科创板/688018-乐鑫科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688018-乐鑫科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3213,4 +3214,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688018-乐鑫科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688018-乐鑫科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3222,7 +3223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3233,17 +3234,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3253,14 +3274,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.97</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3269,13 +3312,915 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9921</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6425</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7110</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5205</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>34</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>9.949999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688018-乐鑫科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688018-乐鑫科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4151,7 +4152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4162,17 +4163,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4182,14 +4203,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.26</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4198,14 +4241,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.97</v>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6278</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4214,13 +4279,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>34</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>9.949999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688018-乐鑫科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688018-乐鑫科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4474,7 +4475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4485,17 +4486,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4505,14 +4526,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>4.96</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="3">
@@ -4521,14 +4616,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>12.26</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="4">
@@ -4537,14 +4632,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>11.97</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="5">
@@ -4553,13 +4648,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>34</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.949999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688018-乐鑫科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688018-乐鑫科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.73</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>4.96</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>12.26</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>11.97</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.949999999999999</v>
       </c>
     </row>
@@ -632,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.11</t>
+          <t>35.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>85.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7348</t>
+          <t>1.1385</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -660,6 +677,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -981,7 +1092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1909,7 +2020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3331,7 +3442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688018-乐鑫科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688018-乐鑫科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.14</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.73</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4.96</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>12.26</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>11.97</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>34</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.949999999999999</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,26 +666,216 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.14</t>
+          <t>45.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.39</t>
+          <t>85.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1385</t>
+          <t>1.9690</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -743,26 +950,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.11</t>
+          <t>35.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>85.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7348</t>
+          <t>1.1385</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -771,6 +978,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1092,7 +1393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2020,7 +2321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3442,7 +3743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
